--- a/biology/Zoologie/Ctenodactylidae/Ctenodactylidae.xlsx
+++ b/biology/Zoologie/Ctenodactylidae/Ctenodactylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cténodactylidés, goundis
-Les Cténodactylidés (Ctenodactylidae), goundis[1],[2],[3] ou gondis, sont une famille de petits rongeurs que l'on trouve en Afrique et dont la classification est encore discutée.
+Les Cténodactylidés (Ctenodactylidae), goundis ou gondis, sont une famille de petits rongeurs que l'on trouve en Afrique et dont la classification est encore discutée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenodactylidae est formé à partir du grec ancien, cteno (Κτενός), qui signifie « peigne » et daktylos (δάκτυλος) qui signifie « doigt ». Cela fait référence à la présence d'une sorte de peigne sur le dessus des pattes des goundis, servant au toilettage[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenodactylidae est formé à partir du grec ancien, cteno (Κτενός), qui signifie « peigne » et daktylos (δάκτυλος) qui signifie « doigt ». Cela fait référence à la présence d'une sorte de peigne sur le dessus des pattes des goundis, servant au toilettage.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les goundis sont des petits animaux qui passent le plus clair de leur temps à dormir et qui ne sortent du sommeil que pour chercher de quoi se nourrir. Ce sont des herbivores qui ont la particularité de ne pas boire.
 </t>
@@ -574,7 +590,9 @@
           <t>Classification et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le zoologiste et paléontologue français Paul Gervais (1816-1879) qui a créé la famille des Ctenodactylidae en 1853.
 Selon les classifications, elle est classée dans le sous-ordre des Sciuravida (ITIS) ou bien dans l'infra-ordre des Ctenodactylomorphi (MSW).
@@ -606,14 +624,16 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (4 déc. 2012)[5], ITIS      (4 déc. 2012)[6] et Catalogue of Life                                   (4 déc. 2012)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (4 déc. 2012), ITIS      (4 déc. 2012) et Catalogue of Life                                   (4 déc. 2012) :
 genre Ctenodactylus Gray, 1830 - deux espèces
-genre Felovia Lataste, 1886 - genre monotypique : Goundi de Félou[1]
-genre Massoutiera Lataste, 1885 - genre monotypique : Goundi du Mzab[1]
-genre Pectinator Blyth, 1856 - genre monotypique : Pectinator de Speke[1],[2]
-Selon Paleobiology Database                   (4 déc. 2012)[8] :
+genre Felovia Lataste, 1886 - genre monotypique : Goundi de Félou
+genre Massoutiera Lataste, 1885 - genre monotypique : Goundi du Mzab
+genre Pectinator Blyth, 1856 - genre monotypique : Pectinator de Speke,
+Selon Paleobiology Database                   (4 déc. 2012) :
 genre Advenimus
 genre Africanomys
 genre Anadianomys
